--- a/classification/droptc/message/modern-bert/unfreeze/99511865/prediction.xlsx
+++ b/classification/droptc/message/modern-bert/unfreeze/99511865/prediction.xlsx
@@ -640,12 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1018,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -2665,12 +2665,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/modern-bert/unfreeze/99511865/prediction.xlsx
+++ b/classification/droptc/message/modern-bert/unfreeze/99511865/prediction.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ParamViolation']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1018,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2314,12 +2314,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['Normal', 'RegulationViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2584,12 +2584,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2692,12 +2692,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
